--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed4/result_data_RandomForest.xlsx
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.2736</v>
+        <v>-12.1312</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.590099999999997</v>
+        <v>4.7643</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.0736</v>
+        <v>15.93390000000001</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.85150000000002</v>
+        <v>-22.0013</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.84389999999999</v>
+        <v>16.82709999999999</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.530599999999997</v>
+        <v>5.504499999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.5046</v>
+        <v>-22.471</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.53130000000002</v>
+        <v>16.55130000000001</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.171399999999998</v>
+        <v>5.641800000000002</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.89259999999999</v>
+        <v>-13.8136</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.8754</v>
+        <v>-21.66109999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.07720000000001</v>
+        <v>16.19790000000001</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.21730000000001</v>
+        <v>-22.37580000000003</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.9458</v>
+        <v>8.655900000000004</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.84019999999999</v>
+        <v>-19.60429999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.04089999999999</v>
+        <v>16.29939999999999</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.3922</v>
+        <v>16.48080000000001</v>
       </c>
     </row>
     <row r="25">
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.32699999999998</v>
+        <v>-21.16979999999997</v>
       </c>
       <c r="B26" t="n">
-        <v>4.257700000000003</v>
+        <v>4.341900000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.35099999999997</v>
+        <v>-21.47019999999996</v>
       </c>
       <c r="B27" t="n">
-        <v>5.392600000000003</v>
+        <v>5.484800000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.20789999999999</v>
+        <v>-13.4734</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.68619999999999</v>
+        <v>-21.69819999999998</v>
       </c>
       <c r="B29" t="n">
-        <v>5.500299999999999</v>
+        <v>5.264599999999998</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>15.94689999999999</v>
+        <v>16.07419999999998</v>
       </c>
     </row>
     <row r="33">
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.50879999999999</v>
+        <v>-11.37589999999999</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.8258</v>
+        <v>-19.9293</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.245</v>
+        <v>-12.2124</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.64529999999999</v>
+        <v>-19.8576</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.258400000000002</v>
+        <v>9.1873</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.714800000000003</v>
+        <v>4.941800000000002</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.0038</v>
+        <v>-11.77910000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.21989999999999</v>
+        <v>16.2824</v>
       </c>
     </row>
     <row r="40">
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-14.04029999999999</v>
+        <v>-14.45459999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.75989999999999</v>
+        <v>-13.86699999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-22.02970000000001</v>
+        <v>-21.94779999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.84919999999999</v>
+        <v>-13.82879999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1230,16 +1230,16 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.354799999999998</v>
+        <v>5.431500000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>-13.0067</v>
+        <v>-12.8895</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.55090000000001</v>
+        <v>16.78199999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.54739999999999</v>
+        <v>17.56749999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.023200000000004</v>
+        <v>5.826600000000004</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.81159999999999</v>
+        <v>-11.84549999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.008699999999999</v>
+        <v>5.435699999999996</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.89520000000001</v>
+        <v>17.0816</v>
       </c>
     </row>
     <row r="53">
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.04089999999999</v>
+        <v>-13.15879999999999</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.5071</v>
+        <v>-22.51940000000001</v>
       </c>
       <c r="B55" t="n">
-        <v>4.613899999999995</v>
+        <v>4.727299999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,18 +1392,18 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.71800000000001</v>
+        <v>16.7863</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.9661</v>
+        <v>-21.84269999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.75229999999999</v>
+        <v>-13.26559999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.2413</v>
+        <v>-14.11000000000001</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.3834</v>
+        <v>-11.088</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.359</v>
+        <v>-10.4282</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.66969999999999</v>
+        <v>-21.66869999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.576499999999995</v>
+        <v>5.546499999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.389800000000003</v>
+        <v>5.868500000000004</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.74909999999999</v>
+        <v>-11.47279999999999</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-22.2009</v>
+        <v>-22.34030000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>5.521399999999999</v>
+        <v>5.326299999999995</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.71429999999998</v>
+        <v>-19.99299999999997</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,10 +1808,10 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.063900000000001</v>
+        <v>5.290100000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.31039999999999</v>
+        <v>-12.12749999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.91160000000001</v>
+        <v>-21.97000000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.69709999999999</v>
+        <v>-21.8916</v>
       </c>
       <c r="B83" t="n">
-        <v>5.680100000000003</v>
+        <v>6.189900000000005</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>17.09369999999999</v>
+        <v>17.13319999999998</v>
       </c>
     </row>
     <row r="85">
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.45069999999999</v>
+        <v>-12.36269999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.48289999999998</v>
+        <v>-20.47789999999997</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>5.112899999999998</v>
+        <v>5.100999999999998</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.3736</v>
+        <v>-12.2347</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.7064</v>
+        <v>-21.69240000000001</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.8816</v>
+        <v>-11.9482</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>6.339200000000001</v>
+        <v>5.981500000000003</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.47670000000001</v>
+        <v>16.3958</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.84640000000001</v>
+        <v>16.90840000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.985400000000004</v>
+        <v>9.234400000000004</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
